--- a/waffle_results.xlsx
+++ b/waffle_results.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david.lively/dev/github/GoLightly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{320B2D55-0127-CC4C-8614-6A3938AE22DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{081D74DC-F25F-AF41-BE65-2F9AEAF24751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Lambda</t>
   </si>
@@ -598,6 +597,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vein Lattice</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -638,7 +662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -673,138 +697,258 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet2!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>480</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552</c:v>
+                  <c:v>94.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>624</c:v>
+                  <c:v>141.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>695.99990000000003</c:v>
+                  <c:v>188.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>767.99990000000003</c:v>
+                  <c:v>235.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>839.99990000000003</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>911.99990000000003</c:v>
+                  <c:v>328.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>984</c:v>
+                  <c:v>375.59989999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1056</c:v>
+                  <c:v>422.3999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1128</c:v>
+                  <c:v>469.19990000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1200</c:v>
+                  <c:v>515.99990000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1272</c:v>
+                  <c:v>562.79989999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1344</c:v>
+                  <c:v>609.59990000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1416</c:v>
+                  <c:v>656.39980000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1488</c:v>
+                  <c:v>703.19979999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1560</c:v>
+                  <c:v>749.99980000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1632</c:v>
+                  <c:v>796.7998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1704</c:v>
+                  <c:v>843.59979999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1776</c:v>
+                  <c:v>890.39980000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1848</c:v>
+                  <c:v>937.19979999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>983.99980000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1030.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1077.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1124.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1171.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1264.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1311.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1358.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1405.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1498.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1545.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1592.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1639.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1686</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1732.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1779.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1826.4010000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1873.201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:f>Sheet2!$E$2:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>8.6314659999999996</c:v>
+                  <c:v>0.24429400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.192360000000001</c:v>
+                  <c:v>5.6316550000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.34431</c:v>
+                  <c:v>1.198606E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.477080000000001</c:v>
+                  <c:v>1.7875700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7931559999999998</c:v>
+                  <c:v>2.394398E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3116160000000008</c:v>
+                  <c:v>3.054933E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.40865</c:v>
+                  <c:v>0.1095214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2530560000000008</c:v>
+                  <c:v>0.44077290000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0897210000000008</c:v>
+                  <c:v>0.24403349999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8621679999999996</c:v>
+                  <c:v>0.94503599999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.646274</c:v>
+                  <c:v>1.734915</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8384910000000003</c:v>
+                  <c:v>0.51375979999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7600809999999996</c:v>
+                  <c:v>1.008446</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9145240000000001</c:v>
+                  <c:v>1.9634210000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8280320000000003</c:v>
+                  <c:v>0.45845409999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6198940000000004</c:v>
+                  <c:v>5.1753039999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8807729999999996</c:v>
+                  <c:v>2.9432489999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4942789999999997</c:v>
+                  <c:v>1.3452949999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.538894</c:v>
+                  <c:v>1.1259330000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0873679999999997</c:v>
+                  <c:v>1.5007600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.593207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3036893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.35669119999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86514469999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0288010000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.752653</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5329069999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2168359999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.924858</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67083530000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51764779999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63198949999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70242090000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8146407</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.80368130000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.86688659999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0912740000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.079925</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.045021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1785950000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +956,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-744E-524F-8560-68FE110C797C}"/>
+              <c16:uniqueId val="{00000000-A009-8148-8F6C-EFF6EA6F29E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -824,11 +968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1696484224"/>
-        <c:axId val="1697921024"/>
+        <c:axId val="1806172080"/>
+        <c:axId val="1806173728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1696484224"/>
+        <c:axId val="1806172080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +1014,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -885,12 +1029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697921024"/>
+        <c:crossAx val="1806173728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1697921024"/>
+        <c:axId val="1806173728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,547 +1091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696484224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>maxValue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>141.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>235.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>328.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>375.59989999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>422.3999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>469.19990000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>515.99990000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>562.79989999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>609.59990000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>656.39980000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>703.19979999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>749.99980000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>796.7998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>843.59979999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>890.39980000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>937.19979999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>983.99980000000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1030.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1077.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1124.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1171.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1218</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1264.8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1311.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1358.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1405.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1452</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1498.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1545.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1592.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1639.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1686</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1732.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1779.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1826.4010000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1873.201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$2:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0.24429400000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6316550000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.198606E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7875700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.394398E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.054933E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1095214</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44077290000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24403349999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94503599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.734915</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51375979999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.008446</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9634210000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.45845409999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.1753039999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9432489999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3452949999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1259330000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5007600000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.593207</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3036893</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.35669119999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.86514469999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.0288010000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.752653</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.5329069999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.2168359999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.924858</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.67083530000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.51764779999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.63198949999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.70242090000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.8146407</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.80368130000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.86688659999999995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0912740000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.079925</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.045021</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.1785950000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8102-B142-B83A-D066BB7F3767}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1741799808"/>
-        <c:axId val="1741801456"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1741799808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1741801456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1741801456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1741799808"/>
+        <c:crossAx val="1806172080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1544,46 +1148,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2139,584 +1703,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731FE89F-8C2C-A203-09C4-C4294E643128}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43011EA2-4BF1-C773-0051-25F0D1C6B908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E4B542-F41B-A7B3-0454-02ABD4B32D64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +2302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
@@ -3835,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3862,379 +2869,6 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>480</v>
-      </c>
-      <c r="C2">
-        <v>4000</v>
-      </c>
-      <c r="D2">
-        <v>0.20671110000000001</v>
-      </c>
-      <c r="E2">
-        <v>8.6314659999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B3">
-        <v>552</v>
-      </c>
-      <c r="C3">
-        <v>4000</v>
-      </c>
-      <c r="D3">
-        <v>0.26579989999999998</v>
-      </c>
-      <c r="E3">
-        <v>14.192360000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1.3</v>
-      </c>
-      <c r="B4">
-        <v>624</v>
-      </c>
-      <c r="C4">
-        <v>4000</v>
-      </c>
-      <c r="D4">
-        <v>0.24793599999999999</v>
-      </c>
-      <c r="E4">
-        <v>12.34431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1.45</v>
-      </c>
-      <c r="B5">
-        <v>695.99990000000003</v>
-      </c>
-      <c r="C5">
-        <v>4000</v>
-      </c>
-      <c r="D5">
-        <v>0.2588279</v>
-      </c>
-      <c r="E5">
-        <v>13.477080000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1.6</v>
-      </c>
-      <c r="B6">
-        <v>767.99990000000003</v>
-      </c>
-      <c r="C6">
-        <v>4000</v>
-      </c>
-      <c r="D6">
-        <v>0.22075020000000001</v>
-      </c>
-      <c r="E6">
-        <v>9.7931559999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1.75</v>
-      </c>
-      <c r="B7">
-        <v>839.99990000000003</v>
-      </c>
-      <c r="C7">
-        <v>4000</v>
-      </c>
-      <c r="D7">
-        <v>0.2035486</v>
-      </c>
-      <c r="E7">
-        <v>8.3116160000000008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1.9</v>
-      </c>
-      <c r="B8">
-        <v>911.99990000000003</v>
-      </c>
-      <c r="C8">
-        <v>4000</v>
-      </c>
-      <c r="D8">
-        <v>0.2276183</v>
-      </c>
-      <c r="E8">
-        <v>10.40865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="B9">
-        <v>984</v>
-      </c>
-      <c r="C9">
-        <v>4000</v>
-      </c>
-      <c r="D9">
-        <v>0.20286489999999999</v>
-      </c>
-      <c r="E9">
-        <v>8.2530560000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B10">
-        <v>1056</v>
-      </c>
-      <c r="C10">
-        <v>4000</v>
-      </c>
-      <c r="D10">
-        <v>0.2128893</v>
-      </c>
-      <c r="E10">
-        <v>9.0897210000000008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2.35</v>
-      </c>
-      <c r="B11">
-        <v>1128</v>
-      </c>
-      <c r="C11">
-        <v>4000</v>
-      </c>
-      <c r="D11">
-        <v>0.19781869999999999</v>
-      </c>
-      <c r="E11">
-        <v>7.8621679999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2.5</v>
-      </c>
-      <c r="B12">
-        <v>1200</v>
-      </c>
-      <c r="C12">
-        <v>4000</v>
-      </c>
-      <c r="D12">
-        <v>0.19526479999999999</v>
-      </c>
-      <c r="E12">
-        <v>7.646274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2.65</v>
-      </c>
-      <c r="B13">
-        <v>1272</v>
-      </c>
-      <c r="C13">
-        <v>4000</v>
-      </c>
-      <c r="D13">
-        <v>0.1846642</v>
-      </c>
-      <c r="E13">
-        <v>6.8384910000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2.8</v>
-      </c>
-      <c r="B14">
-        <v>1344</v>
-      </c>
-      <c r="C14">
-        <v>4000</v>
-      </c>
-      <c r="D14">
-        <v>0.1835078</v>
-      </c>
-      <c r="E14">
-        <v>6.7600809999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2.9500009999999999</v>
-      </c>
-      <c r="B15">
-        <v>1416</v>
-      </c>
-      <c r="C15">
-        <v>4000</v>
-      </c>
-      <c r="D15">
-        <v>0.1856903</v>
-      </c>
-      <c r="E15">
-        <v>6.9145240000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3.1000009999999998</v>
-      </c>
-      <c r="B16">
-        <v>1488</v>
-      </c>
-      <c r="C16">
-        <v>4000</v>
-      </c>
-      <c r="D16">
-        <v>0.18451790000000001</v>
-      </c>
-      <c r="E16">
-        <v>6.8280320000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3.2500010000000001</v>
-      </c>
-      <c r="B17">
-        <v>1560</v>
-      </c>
-      <c r="C17">
-        <v>4000</v>
-      </c>
-      <c r="D17">
-        <v>0.16726150000000001</v>
-      </c>
-      <c r="E17">
-        <v>5.6198940000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3.4000010000000001</v>
-      </c>
-      <c r="B18">
-        <v>1632</v>
-      </c>
-      <c r="C18">
-        <v>4000</v>
-      </c>
-      <c r="D18">
-        <v>0.17124130000000001</v>
-      </c>
-      <c r="E18">
-        <v>5.8807729999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3.550001</v>
-      </c>
-      <c r="B19">
-        <v>1704</v>
-      </c>
-      <c r="C19">
-        <v>4000</v>
-      </c>
-      <c r="D19">
-        <v>0.16553809999999999</v>
-      </c>
-      <c r="E19">
-        <v>5.4942789999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3.7000009999999999</v>
-      </c>
-      <c r="B20">
-        <v>1776</v>
-      </c>
-      <c r="C20">
-        <v>4000</v>
-      </c>
-      <c r="D20">
-        <v>0.16618830000000001</v>
-      </c>
-      <c r="E20">
-        <v>5.538894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3.8500009999999998</v>
-      </c>
-      <c r="B21">
-        <v>1848</v>
-      </c>
-      <c r="C21">
-        <v>4000</v>
-      </c>
-      <c r="D21">
-        <v>0.1742435</v>
-      </c>
-      <c r="E21">
-        <v>6.0873679999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
@@ -4911,346 +3545,6 @@
       </c>
       <c r="E41">
         <v>1.1785950000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>480</v>
-      </c>
-      <c r="C42">
-        <v>4000</v>
-      </c>
-      <c r="D42">
-        <v>0.20671110000000001</v>
-      </c>
-      <c r="E42">
-        <v>8.6314659999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B43">
-        <v>552</v>
-      </c>
-      <c r="C43">
-        <v>4000</v>
-      </c>
-      <c r="D43">
-        <v>0.26579989999999998</v>
-      </c>
-      <c r="E43">
-        <v>14.192360000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1.3</v>
-      </c>
-      <c r="B44">
-        <v>624</v>
-      </c>
-      <c r="C44">
-        <v>4000</v>
-      </c>
-      <c r="D44">
-        <v>0.24793599999999999</v>
-      </c>
-      <c r="E44">
-        <v>12.34431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1.45</v>
-      </c>
-      <c r="B45">
-        <v>695.99990000000003</v>
-      </c>
-      <c r="C45">
-        <v>4000</v>
-      </c>
-      <c r="D45">
-        <v>0.2588279</v>
-      </c>
-      <c r="E45">
-        <v>13.477080000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1.6</v>
-      </c>
-      <c r="B46">
-        <v>767.99990000000003</v>
-      </c>
-      <c r="C46">
-        <v>4000</v>
-      </c>
-      <c r="D46">
-        <v>0.22075020000000001</v>
-      </c>
-      <c r="E46">
-        <v>9.7931559999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1.75</v>
-      </c>
-      <c r="B47">
-        <v>839.99990000000003</v>
-      </c>
-      <c r="C47">
-        <v>4000</v>
-      </c>
-      <c r="D47">
-        <v>0.2035486</v>
-      </c>
-      <c r="E47">
-        <v>8.3116160000000008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1.9</v>
-      </c>
-      <c r="B48">
-        <v>911.99990000000003</v>
-      </c>
-      <c r="C48">
-        <v>4000</v>
-      </c>
-      <c r="D48">
-        <v>0.2276183</v>
-      </c>
-      <c r="E48">
-        <v>10.40865</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="B49">
-        <v>984</v>
-      </c>
-      <c r="C49">
-        <v>4000</v>
-      </c>
-      <c r="D49">
-        <v>0.20286489999999999</v>
-      </c>
-      <c r="E49">
-        <v>8.2530560000000008</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B50">
-        <v>1056</v>
-      </c>
-      <c r="C50">
-        <v>4000</v>
-      </c>
-      <c r="D50">
-        <v>0.2128893</v>
-      </c>
-      <c r="E50">
-        <v>9.0897210000000008</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2.35</v>
-      </c>
-      <c r="B51">
-        <v>1128</v>
-      </c>
-      <c r="C51">
-        <v>4000</v>
-      </c>
-      <c r="D51">
-        <v>0.19781869999999999</v>
-      </c>
-      <c r="E51">
-        <v>7.8621679999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2.5</v>
-      </c>
-      <c r="B52">
-        <v>1200</v>
-      </c>
-      <c r="C52">
-        <v>4000</v>
-      </c>
-      <c r="D52">
-        <v>0.19526479999999999</v>
-      </c>
-      <c r="E52">
-        <v>7.646274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2.65</v>
-      </c>
-      <c r="B53">
-        <v>1272</v>
-      </c>
-      <c r="C53">
-        <v>4000</v>
-      </c>
-      <c r="D53">
-        <v>0.1846642</v>
-      </c>
-      <c r="E53">
-        <v>6.8384910000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2.8</v>
-      </c>
-      <c r="B54">
-        <v>1344</v>
-      </c>
-      <c r="C54">
-        <v>4000</v>
-      </c>
-      <c r="D54">
-        <v>0.1835078</v>
-      </c>
-      <c r="E54">
-        <v>6.7600809999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2.9500009999999999</v>
-      </c>
-      <c r="B55">
-        <v>1416</v>
-      </c>
-      <c r="C55">
-        <v>4000</v>
-      </c>
-      <c r="D55">
-        <v>0.1856903</v>
-      </c>
-      <c r="E55">
-        <v>6.9145240000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>3.1000009999999998</v>
-      </c>
-      <c r="B56">
-        <v>1488</v>
-      </c>
-      <c r="C56">
-        <v>4000</v>
-      </c>
-      <c r="D56">
-        <v>0.18451790000000001</v>
-      </c>
-      <c r="E56">
-        <v>6.8280320000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>3.2500010000000001</v>
-      </c>
-      <c r="B57">
-        <v>1560</v>
-      </c>
-      <c r="C57">
-        <v>4000</v>
-      </c>
-      <c r="D57">
-        <v>0.16726150000000001</v>
-      </c>
-      <c r="E57">
-        <v>5.6198940000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>3.4000010000000001</v>
-      </c>
-      <c r="B58">
-        <v>1632</v>
-      </c>
-      <c r="C58">
-        <v>4000</v>
-      </c>
-      <c r="D58">
-        <v>0.17124130000000001</v>
-      </c>
-      <c r="E58">
-        <v>5.8807729999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>3.550001</v>
-      </c>
-      <c r="B59">
-        <v>1704</v>
-      </c>
-      <c r="C59">
-        <v>4000</v>
-      </c>
-      <c r="D59">
-        <v>0.16553809999999999</v>
-      </c>
-      <c r="E59">
-        <v>5.4942789999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>3.7000009999999999</v>
-      </c>
-      <c r="B60">
-        <v>1776</v>
-      </c>
-      <c r="C60">
-        <v>4000</v>
-      </c>
-      <c r="D60">
-        <v>0.16618830000000001</v>
-      </c>
-      <c r="E60">
-        <v>5.538894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>3.8500009999999998</v>
-      </c>
-      <c r="B61">
-        <v>1848</v>
-      </c>
-      <c r="C61">
-        <v>4000</v>
-      </c>
-      <c r="D61">
-        <v>0.1742435</v>
-      </c>
-      <c r="E61">
-        <v>6.0873679999999997</v>
       </c>
     </row>
   </sheetData>

--- a/waffle_results.xlsx
+++ b/waffle_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david.lively/dev/github/GoLightly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{081D74DC-F25F-AF41-BE65-2F9AEAF24751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA33841B-C85F-2349-BF85-CAC4E2CDE779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1"/>
+    <workbookView xWindow="9260" yWindow="2440" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1713,9 +1710,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1742,265 +1739,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="trash"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="E1" t="str">
-            <v>maxValue</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>480</v>
-          </cell>
-          <cell r="E2">
-            <v>8.6314659999999996</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>544</v>
-          </cell>
-          <cell r="E3">
-            <v>17.319019999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>608</v>
-          </cell>
-          <cell r="E4">
-            <v>13.95567</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>672</v>
-          </cell>
-          <cell r="E5">
-            <v>13.33652</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>736</v>
-          </cell>
-          <cell r="E6">
-            <v>7.5201130000000003</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>800</v>
-          </cell>
-          <cell r="E7">
-            <v>8.5000979999999995</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>864</v>
-          </cell>
-          <cell r="E8">
-            <v>9.9405380000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>928</v>
-          </cell>
-          <cell r="E9">
-            <v>8.7069489999999998</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>992</v>
-          </cell>
-          <cell r="E10">
-            <v>5.5007060000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>1056</v>
-          </cell>
-          <cell r="E11">
-            <v>9.0897210000000008</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1120</v>
-          </cell>
-          <cell r="E12">
-            <v>9.9005410000000005</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1184</v>
-          </cell>
-          <cell r="E13">
-            <v>8.0280640000000005</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1248</v>
-          </cell>
-          <cell r="E14">
-            <v>8.2926610000000007</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1312</v>
-          </cell>
-          <cell r="E15">
-            <v>8.2506979999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1376</v>
-          </cell>
-          <cell r="E16">
-            <v>8.4396509999999996</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1440</v>
-          </cell>
-          <cell r="E17">
-            <v>6.7653509999999999</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1504</v>
-          </cell>
-          <cell r="E18">
-            <v>5.9363409999999996</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1568</v>
-          </cell>
-          <cell r="E19">
-            <v>6.1986090000000003</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1632</v>
-          </cell>
-          <cell r="E20">
-            <v>5.8807679999999998</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1696.001</v>
-          </cell>
-          <cell r="E21">
-            <v>5.5119300000000004</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1760.001</v>
-          </cell>
-          <cell r="E22">
-            <v>5.5289029999999997</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>1824.001</v>
-          </cell>
-          <cell r="E23">
-            <v>5.8760510000000004</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>1888.001</v>
-          </cell>
-          <cell r="E24">
-            <v>4.7621380000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1952.001</v>
-          </cell>
-          <cell r="E25">
-            <v>5.1622450000000004</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2016.001</v>
-          </cell>
-          <cell r="E26">
-            <v>6.0030200000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>2080</v>
-          </cell>
-          <cell r="E27">
-            <v>5.0304679999999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>2144</v>
-          </cell>
-          <cell r="E28">
-            <v>4.8073870000000003</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>2208</v>
-          </cell>
-          <cell r="E29">
-            <v>4.5140269999999996</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2272</v>
-          </cell>
-          <cell r="E30">
-            <v>4.2398550000000004</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>2336</v>
-          </cell>
-          <cell r="E31">
-            <v>3.9702899999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2299,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
@@ -2841,7 +2579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
